--- a/downloaded_files/INTS125_Lecture-35413.xlsx
+++ b/downloaded_files/INTS125_Lecture-35413.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Jana Mostafa Al-Sayed Ahmed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حمزه الوليد محمد محمود الشناوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamza Alwaleed Mohamed Mahmoud Alshennawy</x:t>
   </x:si>
   <x:si>
     <x:t>2230004</x:t>
@@ -422,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1069,7 +1060,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.6676659375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1101,7 +1092,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6676659375</x:v>
+        <x:v>45907.6890584144</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1133,7 +1124,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6890584144</x:v>
+        <x:v>45907.4149915509</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1165,7 +1156,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4149915509</x:v>
+        <x:v>45908.4272900463</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1197,7 +1188,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4272900463</x:v>
+        <x:v>45907.6665717245</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1229,7 +1220,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6665717245</x:v>
+        <x:v>45908.4165586458</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1261,7 +1252,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4165586458</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1293,7 +1284,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4150295139</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1321,11 +1312,9 @@
       <x:c r="C18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45908.4150295139</x:v>
+        <x:v>45907.7013459838</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1348,14 +1337,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.7013459838</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.4185413194</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4185413194</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45907.6663195255</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6663195255</x:v>
+        <x:v>45908.504662419</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.504662419</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45907.4145850694</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4145850694</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45907.6655925926</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6655925926</x:v>
+        <x:v>45907.6702600694</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6702600694</x:v>
+        <x:v>45907.6648391551</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6648391551</x:v>
+        <x:v>45907.4169754977</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4169754977</x:v>
+        <x:v>45907.668903206</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1756,38 +1747,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.668903206</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/INTS125_Lecture-35413.xlsx
+++ b/downloaded_files/INTS125_Lecture-35413.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -280,15 +280,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef hussam elsayed abdelrahman hodhod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد حمدى محمد عثمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Hamdy</x:t>
   </x:si>
   <x:si>
     <x:t>1200317</x:t>
@@ -413,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1698,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4169754977</x:v>
+        <x:v>45907.668903206</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1715,38 +1706,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.668903206</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
